--- a/outputs/data.xlsx
+++ b/outputs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C861"/>
+  <dimension ref="A1:C1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15125,6 +15125,7345 @@
         </is>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Conductivité électrique*</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>2,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>155,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>0,002</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>0,002</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>1,447</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>0,019</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>21-11-24</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>158,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>0,003</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>1,564</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>0,020</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>179,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>0,003</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>1,504</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>0,011</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>140,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>0,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>1,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>0,003</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>1,610</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>0,015</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>24-11-24</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>170,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>0,006</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>1,569</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>0,008</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>25-11-24</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>156,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>0,002</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>1,524</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>0,032</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>26-11-24</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>154,,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>0,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>3,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>0,003</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>1,459</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>0,018</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>27-11-24</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>159,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>0,002</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>0,004</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>0,013</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>28-11-24</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>171,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0,005</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>1,437</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>0,013</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>29-11-24</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Benzo(b) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Benzo(k) fluorranthène*</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Benzo(ghi) pérylène*</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>Indénol(1.2.3-cd) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>Benzo(a) pyrène*</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>Chloroforme</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>Bromoforme</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>Dibromochlorométhane</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>Bromodichlorométhane</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>Papport individual
+(THM/VLS)</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>pH*</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Conductivité
+électrique*</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Couleur réelle*</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Odeur</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Saveur</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>1,5eme seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Turbidité*</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Oxydabilité au KMnO *
+4</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>19,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Oxygène dissous</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Nitrates*</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Nitrites*</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Ammonium*</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>Sulfates*</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>Chlorures*</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>166,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>Fluorures*</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>Chlore libre*</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>Arsenic* (As)</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>Baryum* (Ba)</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>Cadmium* (Cd)</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>Nickel* (Ni)</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>Plomb* (Pb)</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>Sélénium* (Se)</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>Chrome* (Cr)</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>Mercure* (Hg)</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>Aluminium* (Al)</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>0,008</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>Bore* (B)</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>1,483</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Cuivre* (Cu)</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>Manganèse* (Mn)</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Zinc* (Zn)</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>0,010</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>Fer* (Fe)</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>Cyanures</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>&lt;LQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>30-11-24</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>Hydrogène sulfurée</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
